--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Serping1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Serping1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.159891999999999</v>
+        <v>10.218698</v>
       </c>
       <c r="H2">
-        <v>18.479676</v>
+        <v>30.656094</v>
       </c>
       <c r="I2">
-        <v>0.007079533182016282</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="J2">
-        <v>0.007079533182016282</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.490547666666667</v>
+        <v>13.49059133333333</v>
       </c>
       <c r="N2">
-        <v>19.471643</v>
+        <v>40.471774</v>
       </c>
       <c r="O2">
-        <v>0.8021666724616637</v>
+        <v>0.8912900422909269</v>
       </c>
       <c r="P2">
-        <v>0.8021666724616636</v>
+        <v>0.8912900422909269</v>
       </c>
       <c r="Q2">
-        <v>39.98107264751867</v>
+        <v>137.8562786767507</v>
       </c>
       <c r="R2">
-        <v>359.829653827668</v>
+        <v>1240.706508090756</v>
       </c>
       <c r="S2">
-        <v>0.005678965575199935</v>
+        <v>0.0100822014638082</v>
       </c>
       <c r="T2">
-        <v>0.005678965575199934</v>
+        <v>0.0100822014638082</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.159891999999999</v>
+        <v>10.218698</v>
       </c>
       <c r="H3">
-        <v>18.479676</v>
+        <v>30.656094</v>
       </c>
       <c r="I3">
-        <v>0.007079533182016282</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="J3">
-        <v>0.007079533182016282</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,30 +620,30 @@
         <v>1.600723</v>
       </c>
       <c r="N3">
-        <v>4.802168999999999</v>
+        <v>4.802169</v>
       </c>
       <c r="O3">
-        <v>0.1978333275383364</v>
+        <v>0.1057558141903584</v>
       </c>
       <c r="P3">
-        <v>0.1978333275383364</v>
+        <v>0.1057558141903584</v>
       </c>
       <c r="Q3">
-        <v>9.860280801915996</v>
+        <v>16.357304918654</v>
       </c>
       <c r="R3">
-        <v>88.74252721724397</v>
+        <v>147.215744267886</v>
       </c>
       <c r="S3">
-        <v>0.001400567606816348</v>
+        <v>0.001196301286947648</v>
       </c>
       <c r="T3">
-        <v>0.001400567606816348</v>
+        <v>0.001196301286947648</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>771.4717003333334</v>
+        <v>10.218698</v>
       </c>
       <c r="H4">
-        <v>2314.415101</v>
+        <v>30.656094</v>
       </c>
       <c r="I4">
-        <v>0.8866485810946614</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="J4">
-        <v>0.8866485810946614</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>6.490547666666667</v>
+        <v>0.02804266666666666</v>
       </c>
       <c r="N4">
-        <v>19.471643</v>
+        <v>0.08412799999999999</v>
       </c>
       <c r="O4">
-        <v>0.8021666724616637</v>
+        <v>0.001852709710176062</v>
       </c>
       <c r="P4">
-        <v>0.8021666724616636</v>
+        <v>0.001852709710176062</v>
       </c>
       <c r="Q4">
-        <v>5007.273844497883</v>
+        <v>0.2865595417813332</v>
       </c>
       <c r="R4">
-        <v>45065.46460048095</v>
+        <v>2.579035876032</v>
       </c>
       <c r="S4">
-        <v>0.7112399419395601</v>
+        <v>2.095770362690936E-05</v>
       </c>
       <c r="T4">
-        <v>0.7112399419395601</v>
+        <v>2.095770362690936E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +723,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>771.4717003333334</v>
+        <v>10.218698</v>
       </c>
       <c r="H5">
-        <v>2314.415101</v>
+        <v>30.656094</v>
       </c>
       <c r="I5">
-        <v>0.8866485810946614</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="J5">
-        <v>0.8866485810946614</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.600723</v>
+        <v>0.01667133333333333</v>
       </c>
       <c r="N5">
-        <v>4.802168999999999</v>
+        <v>0.050014</v>
       </c>
       <c r="O5">
-        <v>0.1978333275383364</v>
+        <v>0.001101433808538722</v>
       </c>
       <c r="P5">
-        <v>0.1978333275383364</v>
+        <v>0.001101433808538722</v>
       </c>
       <c r="Q5">
-        <v>1234.912494572674</v>
+        <v>0.1703593205906666</v>
       </c>
       <c r="R5">
-        <v>11114.21245115407</v>
+        <v>1.533233885316</v>
       </c>
       <c r="S5">
-        <v>0.1754086391551013</v>
+        <v>1.245933089097856E-05</v>
       </c>
       <c r="T5">
-        <v>0.1754086391551013</v>
+        <v>1.245933089097857E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>92.05234666666666</v>
+        <v>771.4717003333334</v>
       </c>
       <c r="H6">
-        <v>276.15704</v>
+        <v>2314.415101</v>
       </c>
       <c r="I6">
-        <v>0.1057953033444633</v>
+        <v>0.8540056659644313</v>
       </c>
       <c r="J6">
-        <v>0.1057953033444633</v>
+        <v>0.8540056659644314</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,33 +803,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.490547666666667</v>
+        <v>13.49059133333333</v>
       </c>
       <c r="N6">
-        <v>19.471643</v>
+        <v>40.471774</v>
       </c>
       <c r="O6">
-        <v>0.8021666724616637</v>
+        <v>0.8912900422909269</v>
       </c>
       <c r="P6">
-        <v>0.8021666724616636</v>
+        <v>0.8912900422909269</v>
       </c>
       <c r="Q6">
-        <v>597.4701438685245</v>
+        <v>10407.6094344288</v>
       </c>
       <c r="R6">
-        <v>5377.23129481672</v>
+        <v>93668.48490985918</v>
       </c>
       <c r="S6">
-        <v>0.08486546644590044</v>
+        <v>0.7611667461341292</v>
       </c>
       <c r="T6">
-        <v>0.08486546644590043</v>
+        <v>0.7611667461341293</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>92.05234666666666</v>
+        <v>771.4717003333334</v>
       </c>
       <c r="H7">
-        <v>276.15704</v>
+        <v>2314.415101</v>
       </c>
       <c r="I7">
-        <v>0.1057953033444633</v>
+        <v>0.8540056659644313</v>
       </c>
       <c r="J7">
-        <v>0.1057953033444633</v>
+        <v>0.8540056659644314</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,30 +868,30 @@
         <v>1.600723</v>
       </c>
       <c r="N7">
-        <v>4.802168999999999</v>
+        <v>4.802169</v>
       </c>
       <c r="O7">
-        <v>0.1978333275383364</v>
+        <v>0.1057558141903584</v>
       </c>
       <c r="P7">
-        <v>0.1978333275383364</v>
+        <v>0.1057558141903584</v>
       </c>
       <c r="Q7">
-        <v>147.3503085133066</v>
+        <v>1234.912494572674</v>
       </c>
       <c r="R7">
-        <v>1326.15277661976</v>
+        <v>11114.21245115407</v>
       </c>
       <c r="S7">
-        <v>0.02092983689856286</v>
+        <v>0.09031606452724768</v>
       </c>
       <c r="T7">
-        <v>0.02092983689856286</v>
+        <v>0.09031606452724769</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4146736666666667</v>
+        <v>771.4717003333334</v>
       </c>
       <c r="H8">
-        <v>1.244021</v>
+        <v>2314.415101</v>
       </c>
       <c r="I8">
-        <v>0.0004765823788590816</v>
+        <v>0.8540056659644313</v>
       </c>
       <c r="J8">
-        <v>0.0004765823788590817</v>
+        <v>0.8540056659644314</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>6.490547666666667</v>
+        <v>0.02804266666666666</v>
       </c>
       <c r="N8">
-        <v>19.471643</v>
+        <v>0.08412799999999999</v>
       </c>
       <c r="O8">
-        <v>0.8021666724616637</v>
+        <v>0.001852709710176062</v>
       </c>
       <c r="P8">
-        <v>0.8021666724616636</v>
+        <v>0.001852709710176062</v>
       </c>
       <c r="Q8">
-        <v>2.691459199611445</v>
+        <v>21.63412373521422</v>
       </c>
       <c r="R8">
-        <v>24.223132796503</v>
+        <v>194.707113616928</v>
       </c>
       <c r="S8">
-        <v>0.0003822985010032535</v>
+        <v>0.001582224589877676</v>
       </c>
       <c r="T8">
-        <v>0.0003822985010032535</v>
+        <v>0.001582224589877677</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>771.4717003333334</v>
+      </c>
+      <c r="H9">
+        <v>2314.415101</v>
+      </c>
+      <c r="I9">
+        <v>0.8540056659644313</v>
+      </c>
+      <c r="J9">
+        <v>0.8540056659644314</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.050014</v>
+      </c>
+      <c r="O9">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="P9">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="Q9">
+        <v>12.86146187349044</v>
+      </c>
+      <c r="R9">
+        <v>115.753156861414</v>
+      </c>
+      <c r="S9">
+        <v>0.0009406307131768508</v>
+      </c>
+      <c r="T9">
+        <v>0.0009406307131768512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>121.2114333333333</v>
+      </c>
+      <c r="H10">
+        <v>363.6343</v>
+      </c>
+      <c r="I10">
+        <v>0.1341789346279459</v>
+      </c>
+      <c r="J10">
+        <v>0.1341789346279459</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.49059133333333</v>
+      </c>
+      <c r="N10">
+        <v>40.471774</v>
+      </c>
+      <c r="O10">
+        <v>0.8912900422909269</v>
+      </c>
+      <c r="P10">
+        <v>0.8912900422909269</v>
+      </c>
+      <c r="Q10">
+        <v>1635.213912027578</v>
+      </c>
+      <c r="R10">
+        <v>14716.9252082482</v>
+      </c>
+      <c r="S10">
+        <v>0.1195923483190934</v>
+      </c>
+      <c r="T10">
+        <v>0.1195923483190934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.4146736666666667</v>
-      </c>
-      <c r="H9">
-        <v>1.244021</v>
-      </c>
-      <c r="I9">
-        <v>0.0004765823788590816</v>
-      </c>
-      <c r="J9">
-        <v>0.0004765823788590817</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>121.2114333333333</v>
+      </c>
+      <c r="H11">
+        <v>363.6343</v>
+      </c>
+      <c r="I11">
+        <v>0.1341789346279459</v>
+      </c>
+      <c r="J11">
+        <v>0.1341789346279459</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>1.600723</v>
       </c>
-      <c r="N9">
-        <v>4.802168999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.1978333275383364</v>
-      </c>
-      <c r="P9">
-        <v>0.1978333275383364</v>
-      </c>
-      <c r="Q9">
-        <v>0.6637776757276665</v>
-      </c>
-      <c r="R9">
-        <v>5.973999081549</v>
-      </c>
-      <c r="S9">
-        <v>9.42838778558282E-05</v>
-      </c>
-      <c r="T9">
-        <v>9.428387785582821E-05</v>
+      <c r="N11">
+        <v>4.802169</v>
+      </c>
+      <c r="O11">
+        <v>0.1057558141903584</v>
+      </c>
+      <c r="P11">
+        <v>0.1057558141903584</v>
+      </c>
+      <c r="Q11">
+        <v>194.0259291996333</v>
+      </c>
+      <c r="R11">
+        <v>1746.2333627967</v>
+      </c>
+      <c r="S11">
+        <v>0.01419020247877329</v>
+      </c>
+      <c r="T11">
+        <v>0.01419020247877329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>121.2114333333333</v>
+      </c>
+      <c r="H12">
+        <v>363.6343</v>
+      </c>
+      <c r="I12">
+        <v>0.1341789346279459</v>
+      </c>
+      <c r="J12">
+        <v>0.1341789346279459</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02804266666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.08412799999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.001852709710176062</v>
+      </c>
+      <c r="P12">
+        <v>0.001852709710176062</v>
+      </c>
+      <c r="Q12">
+        <v>3.399091821155555</v>
+      </c>
+      <c r="R12">
+        <v>30.5918263904</v>
+      </c>
+      <c r="S12">
+        <v>0.0002485946150862744</v>
+      </c>
+      <c r="T12">
+        <v>0.0002485946150862744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>121.2114333333333</v>
+      </c>
+      <c r="H13">
+        <v>363.6343</v>
+      </c>
+      <c r="I13">
+        <v>0.1341789346279459</v>
+      </c>
+      <c r="J13">
+        <v>0.1341789346279459</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.050014</v>
+      </c>
+      <c r="O13">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="P13">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="Q13">
+        <v>2.020756208911111</v>
+      </c>
+      <c r="R13">
+        <v>18.1868058802</v>
+      </c>
+      <c r="S13">
+        <v>0.0001477892149929266</v>
+      </c>
+      <c r="T13">
+        <v>0.0001477892149929266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4548216666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.364465</v>
+      </c>
+      <c r="I14">
+        <v>0.0005034796223489374</v>
+      </c>
+      <c r="J14">
+        <v>0.0005034796223489374</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.49059133333333</v>
+      </c>
+      <c r="N14">
+        <v>40.471774</v>
+      </c>
+      <c r="O14">
+        <v>0.8912900422909269</v>
+      </c>
+      <c r="P14">
+        <v>0.8912900422909269</v>
+      </c>
+      <c r="Q14">
+        <v>6.135813234545556</v>
+      </c>
+      <c r="R14">
+        <v>55.22231911091001</v>
+      </c>
+      <c r="S14">
+        <v>0.0004487463738960043</v>
+      </c>
+      <c r="T14">
+        <v>0.0004487463738960043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4548216666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.364465</v>
+      </c>
+      <c r="I15">
+        <v>0.0005034796223489374</v>
+      </c>
+      <c r="J15">
+        <v>0.0005034796223489374</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.600723</v>
+      </c>
+      <c r="N15">
+        <v>4.802169</v>
+      </c>
+      <c r="O15">
+        <v>0.1057558141903584</v>
+      </c>
+      <c r="P15">
+        <v>0.1057558141903584</v>
+      </c>
+      <c r="Q15">
+        <v>0.7280435027316667</v>
+      </c>
+      <c r="R15">
+        <v>6.552391524585</v>
+      </c>
+      <c r="S15">
+        <v>5.324589738976604E-05</v>
+      </c>
+      <c r="T15">
+        <v>5.324589738976604E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4548216666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.364465</v>
+      </c>
+      <c r="I16">
+        <v>0.0005034796223489374</v>
+      </c>
+      <c r="J16">
+        <v>0.0005034796223489374</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02804266666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.08412799999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.001852709710176062</v>
+      </c>
+      <c r="P16">
+        <v>0.001852709710176062</v>
+      </c>
+      <c r="Q16">
+        <v>0.01275441239111111</v>
+      </c>
+      <c r="R16">
+        <v>0.11478971152</v>
+      </c>
+      <c r="S16">
+        <v>9.328015852016529E-07</v>
+      </c>
+      <c r="T16">
+        <v>9.32801585201653E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4548216666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.364465</v>
+      </c>
+      <c r="I17">
+        <v>0.0005034796223489374</v>
+      </c>
+      <c r="J17">
+        <v>0.0005034796223489374</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.01667133333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.050014</v>
+      </c>
+      <c r="O17">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="P17">
+        <v>0.001101433808538722</v>
+      </c>
+      <c r="Q17">
+        <v>0.007582483612222223</v>
+      </c>
+      <c r="R17">
+        <v>0.06824235251000001</v>
+      </c>
+      <c r="S17">
+        <v>5.545494779654274E-07</v>
+      </c>
+      <c r="T17">
+        <v>5.545494779654275E-07</v>
       </c>
     </row>
   </sheetData>
